--- a/tel.xlsx
+++ b/tel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\BileMo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D763C87-0F31-4DFE-9F61-5E9C6263B447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267017F7-13F1-46A9-B780-34969062E03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD9DE66E-238A-41C6-9605-6F69EF6508FA}"/>
   </bookViews>
